--- a/Doc/新宁IP列表.xlsx
+++ b/Doc/新宁IP列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,64 @@
   </si>
   <si>
     <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S库工作站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S库1#提升机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S库2#提升机</t>
+  </si>
+  <si>
+    <t>S库3#提升机</t>
+  </si>
+  <si>
+    <t>S库4#提升机</t>
+  </si>
+  <si>
+    <t>S库5#提升机</t>
+  </si>
+  <si>
+    <t>S库6#提升机</t>
+  </si>
+  <si>
+    <t>S库7#提升机</t>
+  </si>
+  <si>
+    <t>10.153.5.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,6 +635,76 @@
       </c>
       <c r="C8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/新宁IP列表.xlsx
+++ b/Doc/新宁IP列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,116 +62,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10.153.3.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B库7#SRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.3.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B库6#SRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B库5#SRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.3.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.3.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S库工作站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S库1#提升机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S库2#提升机</t>
+  </si>
+  <si>
+    <t>S库3#提升机</t>
+  </si>
+  <si>
+    <t>S库4#提升机</t>
+  </si>
+  <si>
+    <t>S库5#提升机</t>
+  </si>
+  <si>
+    <t>S库6#提升机</t>
+  </si>
+  <si>
+    <t>S库7#提升机</t>
+  </si>
+  <si>
+    <t>10.153.5.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.5.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamView账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robo123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>386144980</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>389534540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B库工作站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.153.3.56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B库7#SRM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.3.41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>robo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B库6#SRM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B库5#SRM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.3.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.3.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B库WCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S库工作站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.5.118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S库1#提升机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.5.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S库2#提升机</t>
-  </si>
-  <si>
-    <t>S库3#提升机</t>
-  </si>
-  <si>
-    <t>S库4#提升机</t>
-  </si>
-  <si>
-    <t>S库5#提升机</t>
-  </si>
-  <si>
-    <t>S库6#提升机</t>
-  </si>
-  <si>
-    <t>S库7#提升机</t>
-  </si>
-  <si>
-    <t>10.153.5.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.5.76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.5.66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.5.56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.5.46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.153.5.36</t>
+    <t>A库工作站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>389579387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.153.2.221</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +244,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -231,6 +255,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -279,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,9 +562,11 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +579,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -565,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -579,132 +614,153 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
